--- a/data/trans_dic/P17A-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P17A-Estudios-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.4234938075670904</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.3135575259110071</v>
+        <v>0.3135575259110072</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.367951707405988</v>
@@ -697,7 +697,7 @@
         <v>0.3901056486880524</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.2892079423893483</v>
+        <v>0.2892079423893482</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2987481686665835</v>
+        <v>0.2981564105851504</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3224617148594457</v>
+        <v>0.3195571092635278</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3112746647229785</v>
+        <v>0.311689444060436</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2249928328792369</v>
+        <v>0.2226468610433956</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3754486640460377</v>
+        <v>0.3750107820211457</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3873560520239711</v>
+        <v>0.3851363146702188</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3924311840591834</v>
+        <v>0.3877182387304862</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2889685207543445</v>
+        <v>0.291032196534795</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3501689124531975</v>
+        <v>0.3481623137510667</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3668870828872311</v>
+        <v>0.3688514590371218</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3656405298154765</v>
+        <v>0.3671494105990383</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2694744144986657</v>
+        <v>0.2699432265917246</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3543582445298568</v>
+        <v>0.3565699409729218</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3853042471082515</v>
+        <v>0.3858883118777141</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3790398297040799</v>
+        <v>0.3825750311641031</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2920723046237193</v>
+        <v>0.2930252102411132</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4294578920075671</v>
+        <v>0.4286203476110433</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4394055156561921</v>
+        <v>0.4400577665945883</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4568350250022344</v>
+        <v>0.4532999802620258</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3375606019972786</v>
+        <v>0.3377369766525695</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3891569243255706</v>
+        <v>0.3889815523556838</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4090909455807863</v>
+        <v>0.410342517378075</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4117723897500413</v>
+        <v>0.4158575711372241</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3089340926807261</v>
+        <v>0.3115207893148167</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.2619541948168299</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.2014078073217363</v>
+        <v>0.2014078073217362</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1316649240105844</v>
+        <v>0.1327091565490452</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1660870059799746</v>
+        <v>0.1665295013190052</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2061811505020101</v>
+        <v>0.207401719540084</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1614447672389674</v>
+        <v>0.1593166224170503</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2311978365013338</v>
+        <v>0.2329690858781193</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2593611265074718</v>
+        <v>0.2606106899656976</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2782846434513613</v>
+        <v>0.2776166571788894</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2097466616441318</v>
+        <v>0.2092729383469255</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1876079026031756</v>
+        <v>0.186980311086379</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2148377802188058</v>
+        <v>0.2149729654804</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2491415022271133</v>
+        <v>0.2469601206910434</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1887075364482781</v>
+        <v>0.1897792855697837</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.167469474983759</v>
+        <v>0.1664861289260193</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2023420106350848</v>
+        <v>0.2022080905685085</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2441356950676661</v>
+        <v>0.2435541634204399</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1976308370155979</v>
+        <v>0.1952095557303517</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2749703075546978</v>
+        <v>0.2766415584260216</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3041547772075088</v>
+        <v>0.3042245336525069</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3196799837889449</v>
+        <v>0.319508580187006</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2437872337089503</v>
+        <v>0.242508210533384</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2149116937803195</v>
+        <v>0.2146297358371144</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2433006838989738</v>
+        <v>0.2451466986420825</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2760285375567659</v>
+        <v>0.2771162144889225</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2136449565161888</v>
+        <v>0.2147061617913851</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1024925424242433</v>
+        <v>0.100940024650661</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1265563933459151</v>
+        <v>0.1250985915060981</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1814589177511445</v>
+        <v>0.1882573217371217</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1758143200233448</v>
+        <v>0.1742467289270912</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2050336025792987</v>
+        <v>0.2014195462340156</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1982835380075954</v>
+        <v>0.1957052073144582</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2168665261962775</v>
+        <v>0.2158966883705124</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2128123582578066</v>
+        <v>0.2116383483623347</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1578383577924684</v>
+        <v>0.157954487589886</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1704870030227515</v>
+        <v>0.1732913141847852</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2083886411775106</v>
+        <v>0.2124190825834875</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2019936708914288</v>
+        <v>0.2028104748870194</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1647827254566785</v>
+        <v>0.1633650752229311</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2025250702183088</v>
+        <v>0.19847120891551</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2570377912223006</v>
+        <v>0.26201984017431</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.241526441689296</v>
+        <v>0.2414742432978584</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.283553691722904</v>
+        <v>0.284837385210597</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2802647797335402</v>
+        <v>0.2862120185840297</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2929977457268639</v>
+        <v>0.2931150580824773</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2679939077434487</v>
+        <v>0.2675983705307829</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2069992256991351</v>
+        <v>0.2079354551719398</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.228861174758208</v>
+        <v>0.2299897911542663</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2629260560149661</v>
+        <v>0.2650661891674636</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.244995703391383</v>
+        <v>0.2445377119904895</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.188984596870275</v>
+        <v>0.1877899669202657</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2144169767971119</v>
+        <v>0.2133146049702841</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2356189561935475</v>
+        <v>0.2367974173216471</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1836139513607991</v>
+        <v>0.1819037299164343</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2954308415017589</v>
+        <v>0.2939767912264216</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.311009909165582</v>
+        <v>0.3102618993548012</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3127342010960641</v>
+        <v>0.3110700146296852</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2361949152475937</v>
+        <v>0.2353271849167453</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2464243013997297</v>
+        <v>0.2467907261342278</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2680783235876475</v>
+        <v>0.2679409289205303</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2801843855716029</v>
+        <v>0.2800026627400838</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2127953038082331</v>
+        <v>0.2122733186092155</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.215520441007571</v>
+        <v>0.2163922453527092</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.244493500738209</v>
+        <v>0.2451526773680049</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2676986133240371</v>
+        <v>0.2671804979050757</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2125658827760643</v>
+        <v>0.209204995453615</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.327921351776446</v>
+        <v>0.3263306962826131</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3424293669472241</v>
+        <v>0.3423689971415269</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.343738730138222</v>
+        <v>0.3443678826533245</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2597967689507094</v>
+        <v>0.2604948442747699</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2680049051078973</v>
+        <v>0.2678165261359747</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2901392300780936</v>
+        <v>0.2889149560131596</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3013101535984333</v>
+        <v>0.301312233531061</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2324724775534526</v>
+        <v>0.2320400820193613</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>307946</v>
+        <v>307336</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>313587</v>
+        <v>310762</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>234809</v>
+        <v>235122</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>130015</v>
+        <v>128659</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>493757</v>
+        <v>493182</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>517424</v>
+        <v>514459</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>390336</v>
+        <v>385648</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>237136</v>
+        <v>238830</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>821462</v>
+        <v>816754</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>846871</v>
+        <v>851405</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>639508</v>
+        <v>642147</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>376858</v>
+        <v>377513</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>365269</v>
+        <v>367548</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>374700</v>
+        <v>375268</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>285928</v>
+        <v>288594</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>168777</v>
+        <v>169328</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>564786</v>
+        <v>563684</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>586950</v>
+        <v>587822</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>454396</v>
+        <v>450879</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>277012</v>
+        <v>277157</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>912924</v>
+        <v>912512</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>944289</v>
+        <v>947178</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>720193</v>
+        <v>727338</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>432042</v>
+        <v>435659</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>222735</v>
+        <v>224501</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>324875</v>
+        <v>325740</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>428111</v>
+        <v>430646</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>359967</v>
+        <v>355222</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>366601</v>
+        <v>369410</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>453803</v>
+        <v>455989</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>553313</v>
+        <v>551985</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>454767</v>
+        <v>453740</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>614855</v>
+        <v>612798</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>796134</v>
+        <v>796635</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1012682</v>
+        <v>1003815</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>829905</v>
+        <v>834618</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>283304</v>
+        <v>281641</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>395791</v>
+        <v>395529</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>506920</v>
+        <v>505712</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>440650</v>
+        <v>435251</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>436010</v>
+        <v>438660</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>532178</v>
+        <v>532300</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>635620</v>
+        <v>635279</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>528573</v>
+        <v>525800</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>704338</v>
+        <v>703414</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>901611</v>
+        <v>908451</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1121969</v>
+        <v>1126390</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>939575</v>
+        <v>944242</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>56515</v>
+        <v>55659</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>60410</v>
+        <v>59714</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>99237</v>
+        <v>102955</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>125107</v>
+        <v>123992</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>97680</v>
+        <v>95959</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>90751</v>
+        <v>89571</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>119090</v>
+        <v>118558</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>156391</v>
+        <v>155528</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>162229</v>
+        <v>162349</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>159408</v>
+        <v>162030</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>228400</v>
+        <v>232817</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>292177</v>
+        <v>293358</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>90863</v>
+        <v>90081</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>96673</v>
+        <v>94738</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>140570</v>
+        <v>143295</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>171867</v>
+        <v>171830</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>135088</v>
+        <v>135700</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>128272</v>
+        <v>130994</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>160897</v>
+        <v>160961</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>196943</v>
+        <v>196652</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>212758</v>
+        <v>213720</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>213989</v>
+        <v>215045</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>288174</v>
+        <v>290520</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>354377</v>
+        <v>353715</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>618712</v>
+        <v>614801</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>730275</v>
+        <v>726521</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>795831</v>
+        <v>799811</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>646158</v>
+        <v>640139</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>997725</v>
+        <v>992814</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1101958</v>
+        <v>1099307</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1104608</v>
+        <v>1098730</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>879515</v>
+        <v>876284</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1638983</v>
+        <v>1641420</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1862883</v>
+        <v>1861928</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1935995</v>
+        <v>1934739</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1541232</v>
+        <v>1537451</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>705587</v>
+        <v>708441</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>832712</v>
+        <v>834957</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>904184</v>
+        <v>902434</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>748043</v>
+        <v>736215</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1107451</v>
+        <v>1102079</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1213282</v>
+        <v>1213068</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1214120</v>
+        <v>1216342</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>967401</v>
+        <v>970000</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1782516</v>
+        <v>1781264</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>2016185</v>
+        <v>2007677</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>2081968</v>
+        <v>2081983</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1683750</v>
+        <v>1680618</v>
       </c>
     </row>
     <row r="20">
